--- a/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_5.xlsx
+++ b/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_5.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06491/2023-CR</t>
+          <t>Proyecto de Ley 06507/2023-CR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROHÍBE ACTIVIDADES DE EXPLORACIÓN Y EXPLOTACIÓN MINERA EN EL VALLE DE TAMBO SITUADO EN LOS DISTRITOS DE COCACHACRA, DEÁN VALDIVIA, MEJÍA Y PUNTA DE BOMBÓN, PROVINCIA DE ISLAY DEL DEPARTAMENTO DE AREQUIPA</t>
+          <t>TítuloLEY PARA LA SIMPLIFICACIÓN DEL PROCESO DE CREACIÓN Y OPERACIÓN DE ORGANIZACIONES SOCIALES DE BASE EN EL SERVICIO DE APOYO ALIMENTARIO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,24 +493,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AutoresAgüero Gutiérrez, María Antonieta Palacios Huamán, Margot Cerrón Rojas, Waldemar José ver más...</t>
+          <t>AutoresFlores Ancachi, Jorge Luis Doroteo Carbajo, Raúl Felipe Vergara Mendoza, Elvis Hernán ver más...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06490/2023-CR</t>
+          <t>Proyecto de Ley 06506/2023-CR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 29571, CÓDIGO DE PROTECCIÓN Y DEFENSA DEL CONSUMIDOR, PARA MEJORAR LOS MÉTODOS DE COBRANZA</t>
+          <t>TítuloLEY QUE PROMUEVE LA CREACIÓN DE UNA RED DE FARMACIAS POPULARES EN LAS FACULTADES DE FARMACIA Y BIOQUIMICA DE LAS UNIVERSIDADES NACIONALES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,24 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AutoresBazán Narro, Sigrid Tesoro Paredes Piqué, Susel Ana María Sánchez Palomino, Roberto Helbert ver más...</t>
+          <t>AutoresKamiche Morante, Luis Roberto Bermejo Rojas, Guillermo Bazán Narro, Sigrid Tesoro ver más...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06489/2023-CR</t>
+          <t>Proyecto de Ley 06505/2023-CR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE LA DESCENTRALIZACIÓN DE RECURSOS PÚBLICOS DESTINADOS A GOBIERNOS LOCALES Y CENTROS POBLADOS</t>
+          <t>TítuloLEY DE PROTECCIÓN DE LA INTIMIDAD DE LA MUJER E INDEMNIDAD SEXUAL DE NIÑOS Y NIÑAS EN ESPACIOS PÚBLICOS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,24 +557,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AutoresQuito Sarmiento, Bernardo Jaime</t>
+          <t>AutoresMontoya Manrique, Jorge Carlos Cueto Aservi, José Ernesto Padilla Romero, Javier Rommel ver más...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06488/2023-CR</t>
+          <t>Proyecto de Ley 06504/2023-CR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 29944, LEY DE REFORMA MAGISTERIAL, QUE EXCLUYE DE LA CARRERA PÚBLICA MAGISTERIAL A DOCENTES VINCULADOS A MOVIMIENTOS TERRORISTAS</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA CREACIÓN DE LA UNIVERSIDAD NACIONAL INTERCULTURAL CHOPCCA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,24 +589,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AutoresCavero Alva, Alejandro Enrique Chirinos Venegas, Patricia Rosa Gonzales Delgado, Diana Carolina ver más...</t>
+          <t>AutoresPariona Sinche, Alfredo Quito Sarmiento, Bernardo Jaime Wong Pujada, Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06487/2023-CR</t>
+          <t>Proyecto de Ley 06503/2023-CR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA EL DELITO DE MANIPULACIÓN DE RESULTADOS DEPORTIVOS.</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA CREACIÓN DE LA UNIVERSIDAD NACIONAL TECNOLÓGICA NUEVO OCCORO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,24 +621,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AutoresParedes Piqué, Susel Ana María Bazán Narro, Sigrid Tesoro Kamiche Morante, Luis Roberto ver más...</t>
+          <t>AutoresPariona Sinche, Alfredo Quito Sarmiento, Bernardo Jaime Varas Meléndez, Elías Marcial ver más...</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06486/2023-CR</t>
+          <t>Proyecto de Ley 06502/2023-CR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 8 DE LA LEY N° 29360, LEY DEL SERVICIO DE DEFENSA PÚBLICA, PARA FORTALECER EL CUMPLIMIENTO DE LOS PLAZOS PROCESALES PENALES</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 31250, LEY DEL SISTEMA NACIONAL DE CIENCIA, TECNOLOGÍA E INNOVACIÓN (SINACTI)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,24 +653,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresMálaga Trillo, George Edward</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06485/2023-CR</t>
+          <t>Proyecto de Ley 06501/2023-CR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE LA TRANSPARENCIA EN LAS CONTRATACIONES PÚBLICAS A TRAVÉS DEL USO DE LA TECNOLOGÍA</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 30220, LEY UNIVERSITARIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresMálaga Trillo, George Edward</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06484/2023-CR</t>
+          <t>Proyecto de Ley 06500/2023-CR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PRECISA EL VALOR COMERCIAL DE LA REPRODUCCIÓN DE LA INFORMACIÓN PÚBLICA</t>
+          <t>TítuloLEY QUE AUTORIZA LA CREACIÓN DEL PROGRAMA DE COMPLEMENTACIÓN ALIMENTARIA DE OLLAS COMUNES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,29 +717,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresAlcarraz Agüero, Yorel Kira Paredes Castro, Francis Jhasmina Luna Gálvez, José León ver más...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06483/2023-CR</t>
+          <t>Proyecto de Ley 06499/2023-CR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CONVIERTE A LAS CARPETAS FISCALES Y EXPEDIENTES JUDICIALES EN INFORMACIÓN PÚBLICA CUANDO ESTÁN EN ETAPA DE JUICIO ORAL</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL RECONOCER A LA CIUDAD DE ETEN COMO CIUDAD EUCARÍSTICA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalRetirado por su Autor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,24 +749,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06482/2023-CR</t>
+          <t>Proyecto de Ley 06498/2023-CR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 23330, QUE ESTABLECE EL SERVICIO RURAL Y URBANO MARGINAL DE SALUD — SERUMS, PARA FORTALECER LAS CAPACIDADES DE LOS PROFESIONALES DE CIENCIAS DE LA SALUD Y MEJORAR LA GESTIÓN EN EL PRIMER NIVEL DE ATENCIÓN</t>
+          <t>TítuloLEY QUE MODIFICA DIVERSOS ARTÍCULOS DEL NUEVO CÓDIGO PROCESAL PENAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresCerrón Rojas, Waldemar José Portalatino Ávalos, Kelly Roxana Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06481/2023-CR</t>
+          <t>Proyecto de Ley 06497/2023-CG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 46 - B DEL CÓDIGO PENAL, PRECISANDO LOS ALCANCES DE LA REINCIDENCIA, PARA GARANTIZAR LA IMPOSICIÓN DE SANCIONES JUSTAS A DELINCUENTES REINCIDENTES</t>
+          <t>TítuloLEY QUE PRECISA EL ALCANCE Y REQUISITOS EN LAS CONTRATACIONES BAJO LA MODALIDAD ESTADO A ESTADO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,29 +808,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponenteContraloría General de la República</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06480/2023-CR</t>
+          <t>Proyecto de Ley 06496/2023-CR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FACILITA EL ACCESO DIRECTO DE LAS PARTES PROCESALES A LOS DOCUMENTOS POLICIALES, CARPETAS FISCALES Y EXPEDIENTES JUDICIALES A TRAVÉS DE LA TECNOLOGÍA</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 30220, LEY UNIVERSITARIA, A EFECTO DE INCORPORAR A LOS JEFES DE PRÁCTICA EN EL ESCALAFÓN DE LA DOCENCIA UNIVERSITARIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -845,24 +845,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Flores Ancachi, Jorge Luis ver más...</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06479/2023-CR</t>
+          <t>Proyecto de Ley 06495/2023-CR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE AUTORIZA EL USO DE GRILLETES ELECTRÓNICOS PARA MENORES DE EDAD INFRACTORES DE LA LEY PENAL, A FIN DE FOMENTAR SU RESOCIALIZACIÓN</t>
+          <t>TítuloLEY QUE AMPLIA LA VIGENCIA DE LA LEY 31480, LEY QUE AUTORIZA LA DISPOSICIÓN DE LA COMPENSACIÓN POR TIEMPO DE SERVICIO A FIN DE CUBRIR LAS NECESIDADES ECONÓMICAS CAUSADAS POR LA RESECIÓN ECONÓMICA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,24 +877,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresCoayla Juárez, Jorge Samuel Bellido Ugarte, Guido Varas Meléndez, Elías Marcial ver más...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06478/2023-CR</t>
+          <t>Proyecto de Ley 06494/2023-CR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 42-A DEL TUO DE LA LEY DEL SISTEMA PRIVADO DE ADMINISTRACIÓN DE FONDOS DE PENSIONES, A FIN DE AUTORIZAR LA DEVOLUCIÓN DE HASTA EL 90% DE APORTES EN CASOS DE ENFERMEDAD TERMINAL O DIAGNÓSTICO DE CANCER</t>
+          <t>TítuloLEY QUE FACULTA EL RETIRO EXTRAORDINARIO DE LOS FONDOS PRIVADOS DE PENSIONES COMO MEDIDA PARA REDUCIR EL IMPACTO DE LA RECESIÓN ECONÓMICA EN EL AÑO 2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -909,14 +909,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresLópez Morales, Jeny Luz Zeta Chunga, Cruz Maria Ventura Ángel, Héctor José ver más...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06477/2023-CR</t>
+          <t>Proyecto de Ley 06493/2023-CR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PERMITE EL USO DE GRILLETES ELECTRÓNICOS PARA ADOLESCENTES INFRACTORES</t>
+          <t>TítuloLEY DE PROMOCIÓN Y FORTALECIMIENTO DE ALIANZAS POLÍTICAS PARA EL FORTALECIMIENTO DE LA DEMOCRACIA REPRESENTATIVA DEL PERÚ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -941,14 +941,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresParedes Piqué, Susel Ana María Luque Ibarra, Ruth Limachi Quispe, Nieves Esmeralda ver más...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06476/2023-CR</t>
+          <t>Proyecto de Ley 06492/2023-CR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL LITERAL C) DEL NUMERAL 1.1 DEL ARTÍCULO 1, Y EL ARTICULO 2, E INCORPORA EL ARTÍCULO 8-A EN LA LEY N° 30737, LEY QUE ASEGURA EL PAGO INMEDIATO DE LA REPARACIÓN CIVIL A FAVOR DEL ESTADO PERUANO EN CASOS DE CORRUPCIÓN Y DELITOS CONEXOS</t>
+          <t>Título"LEY QUE AUTORIZA, POR ÚNICA VEZ Y DE MANERA EXCEPCIONAL, EL NOMBRAMIENTO A PERSONAL CAS DEL MINISTERIO DE SALUD, QUE FUE RETIRADO DEL REGISTRO EN EL AIRHSP"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -973,14 +973,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AutoresSoto Palacios, Wilson Vergara Mendoza, Elvis Hernán Doroteo Carbajo, Raúl Felipe ver más...</t>
+          <t>AutoresGarcía Correa, Idelso Manuel Julón Irigoín, Elva Edhit Soto Reyes, Alejandro ver más...</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06475/2023-CR</t>
+          <t>Proyecto de Ley 06491/2023-CR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA LOS PRINCIPIOS DE FACILIDAD DE USO Y MEJORA CONTINUA A LA LEY N° 30225 LEY DE CONTRATACIONES DEL ESTADO, CUYO TEXTO ÚNICO ORDENADO FUE APROBADO POR EL DECRETO SUPREMO 082-2019-EF</t>
+          <t>TítuloLEY QUE PROHÍBE ACTIVIDADES DE EXPLORACIÓN Y EXPLOTACIÓN MINERA EN EL VALLE DE TAMBO SITUADO EN LOS DISTRITOS DE COCACHACRA, DEÁN VALDIVIA, MEJÍA Y PUNTA DE BOMBÓN, PROVINCIA DE ISLAY DEL DEPARTAMENTO DE AREQUIPA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,14 +1005,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AutoresCavero Alva, Alejandro Enrique Gonzales Delgado, Diana Carolina Córdova Lobatón, María Jessica ver más...</t>
+          <t>AutoresAgüero Gutiérrez, María Antonieta Palacios Huamán, Margot Cerrón Rojas, Waldemar José ver más...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06474/2023-CR</t>
+          <t>Proyecto de Ley 06490/2023-CR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA DENOMINACIÓN ÁREA DE CONSERVACIÓN PRIVADA POR ÁREA DE CONSERVACIÓN VOLUNTARIA Y RECONOCE EL DÍA DE LA CONSERVACIÓN VOLUNTARIA EN EL PERÚ</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 29571, CÓDIGO DE PROTECCIÓN Y DEFENSA DEL CONSUMIDOR, PARA MEJORAR LOS MÉTODOS DE COBRANZA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AutoresAlegría García, Arturo Castillo Rivas, Eduardo Enrique Barbarán Reyes, Rosangella Andrea ver más...</t>
+          <t>AutoresBazán Narro, Sigrid Tesoro Paredes Piqué, Susel Ana María Sánchez Palomino, Roberto Helbert ver más...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06473/2023-CR</t>
+          <t>Proyecto de Ley 06489/2023-CR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PRORROGA DE LA EXONERACIÓN PREVISTA EN LA LEY 30341, LEY QUE FOMENTA LA LIQUIDEZ E INTEGRACIÓN DEL MERCADO DE VALORES</t>
+          <t>TítuloLEY QUE PROMUEVE LA DESCENTRALIZACIÓN DE RECURSOS PÚBLICOS DESTINADOS A GOBIERNOS LOCALES Y CENTROS POBLADOS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1069,24 +1069,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AutoresRevilla Villanueva, César Manuel Lizarzaburu Lizarzaburu, Juan Carlos Martin Infantes Castañeda, Mery Eliana ver más...</t>
+          <t>AutoresQuito Sarmiento, Bernardo Jaime</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06472/2023-CR</t>
+          <t>Proyecto de Ley 06488/2023-CR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha de Presentación21/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE LA CADENA EXPORTADORA DEL CUY Y RECONOCE A LA ÚLTIMA SEMANA DE NOVIEMBRE COMO "SEMANA INTERNACIONAL DEL CUY"</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 29944, LEY DE REFORMA MAGISTERIAL, QUE EXCLUYE DE LA CARRERA PÚBLICA MAGISTERIAL A DOCENTES VINCULADOS A MOVIMIENTOS TERRORISTAS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,24 +1101,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AutoresJulón Irigoín, Elva Edhit Salhuana Cavides, Eduardo Soto Reyes, Alejandro ver más...</t>
+          <t>AutoresCavero Alva, Alejandro Enrique Chirinos Venegas, Patricia Rosa Gonzales Delgado, Diana Carolina ver más...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06471/2023-CR</t>
+          <t>Proyecto de Ley 06487/2023-CR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fecha de Presentación21/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE ESTABLECE LA RENOVACIÓN POR TERCIOS DEL CONGRESO DE LA REPÚBLICA A LA MITAD DEL PERIODO PARLAMENTARIO</t>
+          <t>TítuloLEY QUE INCORPORA EL DELITO DE MANIPULACIÓN DE RESULTADOS DEPORTIVOS.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1133,24 +1133,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AutoresAcuña Peralta, Segundo Héctor Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
+          <t>AutoresParedes Piqué, Susel Ana María Bazán Narro, Sigrid Tesoro Kamiche Morante, Luis Roberto ver más...</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06470/2023-CR</t>
+          <t>Proyecto de Ley 06486/2023-CR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fecha de Presentación21/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE EL REGISTRO OBLIGATORIO DE LA MAQUINARIA PESADA UTILIZADA EN LA ACTIVIDAD MINERA, AGRÍCOLA Y DE CONSTRUCCIÓN</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 8 DE LA LEY N° 29360, LEY DEL SERVICIO DE DEFENSA PÚBLICA, PARA FORTALECER EL CUMPLIMIENTO DE LOS PLAZOS PROCESALES PENALES</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1165,24 +1165,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AutoresAcuña Peralta, Segundo Héctor Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06469/2023-CR</t>
+          <t>Proyecto de Ley 06485/2023-CR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fecha de Presentación21/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE MODIFICA EL ARTÍCULO 92-A DEL REGLAMENTO DEL CONGRESO DE LA REPÚBLICA</t>
+          <t>TítuloLEY QUE FORTALECE LA TRANSPARENCIA EN LAS CONTRATACIONES PÚBLICAS A TRAVÉS DEL USO DE LA TECNOLOGÍA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1197,24 +1197,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AutoresChirinos Venegas, Patricia Rosa Gonzales Delgado, Diana Carolina Córdova Lobatón, María Jessica ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06468/2023-CR</t>
+          <t>Proyecto de Ley 06484/2023-CR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha de Presentación21/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Título"LEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA IMPLEMENTACIÓN DE LA SEGUNDA ETAPA DE INSTALACIÓN DE GAS NATURAL DOMICILIARIO EN LAS PROVINCIAS DE AYABACA, HUANCABAMBA Y MORROPÓN"</t>
+          <t>TítuloLEY QUE PRECISA EL VALOR COMERCIAL DE LA REPRODUCCIÓN DE LA INFORMACIÓN PÚBLICA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1229,24 +1229,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AutoresGarcía Correa, Idelso Manuel Chiabra León, Roberto Enrique Julón Irigoín, Elva Edhit ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06467/2023-CR</t>
+          <t>Proyecto de Ley 06483/2023-CR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fecha de Presentación20/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LAS OBRAS MUSICALES DEL MAESTRO PEDRO XIMENEZ ABRIL TIRADO</t>
+          <t>TítuloLEY QUE CONVIERTE A LAS CARPETAS FISCALES Y EXPEDIENTES JUDICIALES EN INFORMACIÓN PÚBLICA CUANDO ESTÁN EN ETAPA DE JUICIO ORAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1261,24 +1261,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AutoresParedes Piqué, Susel Ana María Bazán Calderón, Diego Alonso Fernando Kamiche Morante, Luis Roberto ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06466/2023-CR</t>
+          <t>Proyecto de Ley 06482/2023-CR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha de Presentación20/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA EL DÍA DE LA EDUCACIÓN FINANCIERA EL PRIMER MIÉRCOLES DE OCTUBRE DE CADA AÑO</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 23330, QUE ESTABLECE EL SERVICIO RURAL Y URBANO MARGINAL DE SALUD — SERUMS, PARA FORTALECER LAS CAPACIDADES DE LOS PROFESIONALES DE CIENCIAS DE LA SALUD Y MEJORAR LA GESTIÓN EN EL PRIMER NIVEL DE ATENCIÓN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1293,24 +1293,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AutoresParedes Piqué, Susel Ana María Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06465/2023-CR</t>
+          <t>Proyecto de Ley 06481/2023-CR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha de Presentación20/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FACULTA A LOS AFILIADOS AL SISTEMA PRIVADO DE FONDOS DE PENSIONES EL RETIRO DE HASTA 2 UNIDADES IMPOSITIVAS TRIBUTARIAS (UIT) DE LOS FONDOS ACUMULADOS EN SU CUENTA INDIVIDUAL DE CAPITALIZACIÓN (CIC)</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 46 - B DEL CÓDIGO PENAL, PRECISANDO LOS ALCANCES DE LA REINCIDENCIA, PARA GARANTIZAR LA IMPOSICIÓN DE SANCIONES JUSTAS A DELINCUENTES REINCIDENTES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1325,24 +1325,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AutoresRevilla Villanueva, César Manuel Olivos Martínez, Vivian Lizarzaburu Lizarzaburu, Juan Carlos Martin ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06464/2023-CR</t>
+          <t>Proyecto de Ley 06480/2023-CR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fecha de Presentación20/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TítuloLEY DE NOMBRAMIENTO EXCEPCIONAL DE DOCENTES QUE HAN APROBADO EL INGRESO A LA CARRERA PÚBLICA MAGISTERIAL 2022, SIN REQUISITO DE ESTAR INSCRITO EN EL REGISTRO NACIONAL DE DOCENTES BILINGÜES EN LENGUA ORIGINARIA (RNDBLO), EN LAS PLAZAS VACANTES ORGÁNICAS DE LAS I.E. DE EDUCACIÓN INTERCULTURAL BILINGÜE (EIB)</t>
+          <t>TítuloLEY QUE FACILITA EL ACCESO DIRECTO DE LAS PARTES PROCESALES A LOS DOCUMENTOS POLICIALES, CARPETAS FISCALES Y EXPEDIENTES JUDICIALES A TRAVÉS DE LA TECNOLOGÍA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1357,24 +1357,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AutoresQuispe Mamani, Wilson Rusbel Palacios Huamán, Margot Portalatino Ávalos, Kelly Roxana ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06463/2023-CR</t>
+          <t>Proyecto de Ley 06479/2023-CR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de Presentación20/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TítuloLEY DE GARANTÍA DEL DERECHO A LA PARTICIPACIÓN EN LAS UTILIDADES</t>
+          <t>TítuloLEY QUE AUTORIZA EL USO DE GRILLETES ELECTRÓNICOS PARA MENORES DE EDAD INFRACTORES DE LA LEY PENAL, A FIN DE FOMENTAR SU RESOCIALIZACIÓN</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1389,29 +1389,29 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AutoresCortez Aguirre, Isabel Bazán Narro, Sigrid Tesoro Martínez Talavera, Pedro Edwin ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06462/2023-CR</t>
+          <t>Proyecto de Ley 06478/2023-CR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fecha de Presentación20/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL LITERAL F DEL NUMERAL 24 DEL ARTICULO 2 DE LA CONSTITUCION POLITICA DEL PERU Y EL NUMERAL 4 DEL ARTICULO 264 DEL CODIGO PROCESAL PENAL PARA AMPLIAR EL PLAZO DE LA DETENCION POLICIAL Y DETENCION PRELIMINAR EN LOS DELITOS DE TRATA DE PERSONAS</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 42-A DEL TUO DE LA LEY DEL SISTEMA PRIVADO DE ADMINISTRACIÓN DE FONDOS DE PENSIONES, A FIN DE AUTORIZAR LA DEVOLUCIÓN DE HASTA EL 90% DE APORTES EN CASOS DE ENFERMEDAD TERMINAL O DIAGNÓSTICO DE CANCER</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Estado ProcesalDictamen</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,24 +1421,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AutoresJáuregui Martínez de Aguayo, María de los Milagros Jackeline Montoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06461/2023-CR</t>
+          <t>Proyecto de Ley 06477/2023-CR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 30021, LEY DE PROMOCIÓN DE LA ALIMENTACIÓN SALUDABLE PARA NIÑOS, NIÑAS Y ADOLESCENTES</t>
+          <t>TítuloLEY QUE PERMITE EL USO DE GRILLETES ELECTRÓNICOS PARA ADOLESCENTES INFRACTORES</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1453,29 +1453,29 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06460/2023-CR</t>
+          <t>Proyecto de Ley 06476/2023-CR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE OPTIMIZA EL AMBITO Y CRITERIOS DE APLICACIÓN DE LA LEY N° 31495, LEY QUE RECONOCE EL DERECHO Y DISPONE EL PAGO DE LA BONIFICACIÓN ESPECIAL POR PREPARACIÓN DE CLASES Y EVALUACIÓN, BONIFICACIÓN ADICIONAL POR DESEMPEÑO DEL CARGO Y POR PREPARACIÓN DE DOCUMENTOS DE GESTIÓN, SIN LA EXIGENCIA DE SENTENCIA JUDICIAL Y MENOS EN CALIDAD DE COSA JUZGADA</t>
+          <t>TítuloLEY QUE MODIFICA EL LITERAL C) DEL NUMERAL 1.1 DEL ARTÍCULO 1, Y EL ARTICULO 2, E INCORPORA EL ARTÍCULO 8-A EN LA LEY N° 30737, LEY QUE ASEGURA EL PAGO INMEDIATO DE LA REPARACIÓN CIVIL A FAVOR DEL ESTADO PERUANO EN CASOS DE CORRUPCIÓN Y DELITOS CONEXOS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Estado ProcesalDictamen</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1485,24 +1485,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
+          <t>AutoresSoto Palacios, Wilson Vergara Mendoza, Elvis Hernán Doroteo Carbajo, Raúl Felipe ver más...</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06459/2023-CR</t>
+          <t>Proyecto de Ley 06475/2023-CR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE RECONOCE, EN EL MARCO DEL BICENTENARIO DE LA INDEPENDENCIA, EL SANTUARIO DE LA BATALLA DE TRIGOPAMPA EN LA PROVINCIA DE FAJARDO, DEPARTAMENTO DE AYACUCHO</t>
+          <t>TítuloLEY QUE INCORPORA LOS PRINCIPIOS DE FACILIDAD DE USO Y MEJORA CONTINUA A LA LEY N° 30225 LEY DE CONTRATACIONES DEL ESTADO, CUYO TEXTO ÚNICO ORDENADO FUE APROBADO POR EL DECRETO SUPREMO 082-2019-EF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1517,24 +1517,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AutoresPalacios Huamán, Margot Quispe Mamani, Wilson Rusbel Cruz Mamani, Flavio ver más...</t>
+          <t>AutoresCavero Alva, Alejandro Enrique Gonzales Delgado, Diana Carolina Córdova Lobatón, María Jessica ver más...</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06458/2023-PE</t>
+          <t>Proyecto de Ley 06474/2023-CR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA "DÍA DE LA INSTITUCIONALIDAD, DEL ESTADO DE DERECHO Y DE LA DEFENSA DE LA DEMOCRACIA"</t>
+          <t>TítuloLEY QUE MODIFICA LA DENOMINACIÓN ÁREA DE CONSERVACIÓN PRIVADA POR ÁREA DE CONSERVACIÓN VOLUNTARIA Y RECONOCE EL DÍA DE LA CONSERVACIÓN VOLUNTARIA EN EL PERÚ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1544,29 +1544,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ProponentePoder Ejecutivo</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresAlegría García, Arturo Castillo Rivas, Eduardo Enrique Barbarán Reyes, Rosangella Andrea ver más...</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06457/2023-CR</t>
+          <t>Proyecto de Ley 06473/2023-CR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación22/11/2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 26790, LEY DE MODERNIZACIÓN DE LA SEGURIDAD SOCIAL EN SALUD</t>
+          <t>TítuloLEY QUE PRORROGA DE LA EXONERACIÓN PREVISTA EN LA LEY 30341, LEY QUE FOMENTA LA LIQUIDEZ E INTEGRACIÓN DEL MERCADO DE VALORES</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1581,24 +1581,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AutoresQuispe Mamani, Wilson Rusbel Taipe Coronado, María Elizabeth Portalatino Ávalos, Kelly Roxana ver más...</t>
+          <t>AutoresRevilla Villanueva, César Manuel Lizarzaburu Lizarzaburu, Juan Carlos Martin Infantes Castañeda, Mery Eliana ver más...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06456/2023-CR</t>
+          <t>Proyecto de Ley 06472/2023-CR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación21/11/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FACULTA EL RETIRO EXTRAORDINARIO Y VOLUNTARIO DE HASTA 4 UNIDADES IMPOSITIVAS TRIBUTARIAS (UIT), DE LOS FONDOS PRIVADOS DE PENSIONES (AFP) EN EL CONTEXTO DE LA RECESIÓN ECONÓMICA.</t>
+          <t>TítuloLEY QUE FORTALECE LA CADENA EXPORTADORA DEL CUY Y RECONOCE A LA ÚLTIMA SEMANA DE NOVIEMBRE COMO "SEMANA INTERNACIONAL DEL CUY"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1613,24 +1613,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AutoresQuispe Mamani, Wilson Rusbel Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
+          <t>AutoresJulón Irigoín, Elva Edhit Salhuana Cavides, Eduardo Soto Reyes, Alejandro ver más...</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06455/2023-CR</t>
+          <t>Proyecto de Ley 06471/2023-CR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación21/11/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 30230; LEY QUE ESTABLECE MEDIDAS TRIBUTARIAS, SIMPLIFICACIÓN DE PROCEDIMIENTOS Y PERMISOS PARA LA PROMOCIÓN Y DINAMIZACIÓN DE LA INVERSIÓN EN EL PAÍS</t>
+          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE ESTABLECE LA RENOVACIÓN POR TERCIOS DEL CONGRESO DE LA REPÚBLICA A LA MITAD DEL PERIODO PARLAMENTARIO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1645,24 +1645,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AutoresMita Alanoca, Isaac Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
+          <t>AutoresAcuña Peralta, Segundo Héctor Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06454/2023-CR</t>
+          <t>Proyecto de Ley 06470/2023-CR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación21/11/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY DE CONTRATACIONES DEL ESTADO N.° 30225; PARA OPTIMIZAR EL CUMPLIMIENTO DE LAS OBLIGACIONES AMBIENTALES</t>
+          <t>TítuloLEY QUE ESTABLECE EL REGISTRO OBLIGATORIO DE LA MAQUINARIA PESADA UTILIZADA EN LA ACTIVIDAD MINERA, AGRÍCOLA Y DE CONSTRUCCIÓN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1677,24 +1677,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AutoresMita Alanoca, Isaac Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
+          <t>AutoresAcuña Peralta, Segundo Héctor Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06453/2023-CR</t>
+          <t>Proyecto de Ley 06469/2023-CR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación21/11/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE GARANTIZA LA EFICACIA Y EFICIENCIA EN LOS ÓRGANOS RESOLUTIVOS DEL INDECOPI</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE MODIFICA EL ARTÍCULO 92-A DEL REGLAMENTO DEL CONGRESO DE LA REPÚBLICA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1709,29 +1709,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AutoresTudela Gutiérrez, Adriana Josefina Williams Zapata, José Daniel Chirinos Venegas, Patricia Rosa ver más...</t>
+          <t>AutoresChirinos Venegas, Patricia Rosa Gonzales Delgado, Diana Carolina Córdova Lobatón, María Jessica ver más...</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06452/2023-CR</t>
+          <t>Proyecto de Ley 06468/2023-CR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de Presentación17/11/2023</t>
+          <t>Fecha de Presentación21/11/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL DECRETO LEGISLATIVO 635, CÓDIGO PENAL, QUE TIPIFICAN COMO DELITO LAS PRÁCTICAS ILÍCITAS ANTICOMPETITIVAS EN LA EXTRACCIÓN COMERCIAL DE RECURSOS HIDROBIOLÓGICOS</t>
+          <t>Título"LEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA IMPLEMENTACIÓN DE LA SEGUNDA ETAPA DE INSTALACIÓN DE GAS NATURAL DOMICILIARIO EN LAS PROVINCIAS DE AYABACA, HUANCABAMBA Y MORROPÓN"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Estado ProcesalAPROBADO</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1741,24 +1741,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AutoresRivas Chacara, Janet Milagros Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
+          <t>AutoresGarcía Correa, Idelso Manuel Chiabra León, Roberto Enrique Julón Irigoín, Elva Edhit ver más...</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06451/2023-CR</t>
+          <t>Proyecto de Ley 06467/2023-CR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha de Presentación16/11/2023</t>
+          <t>Fecha de Presentación20/11/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN DEL DISTRITO DE WANCHO LIMA, EN LA PROVINCIA DE HUANCANE, DEL DEPARTAMENTO DE PUNO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LAS OBRAS MUSICALES DEL MAESTRO PEDRO XIMENEZ ABRIL TIRADO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1773,24 +1773,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AutoresFlores Ancachi, Jorge Luis Soto Palacios, Wilson Aragón Carreño, Luis Ángel ver más...</t>
+          <t>AutoresParedes Piqué, Susel Ana María Bazán Calderón, Diego Alonso Fernando Kamiche Morante, Luis Roberto ver más...</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06450/2023-CR</t>
+          <t>Proyecto de Ley 06466/2023-CR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fecha de Presentación16/11/2023</t>
+          <t>Fecha de Presentación20/11/2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA LICENCIA CON GOCE DE REMUNERACIONES PARA CONSEJEROS REGIONALES Y REGIDORES DE LOS GOBIERNOS LOCALES, A FAVOR DE LOS SERVIDORES COMPRENDIDOS EN LA LEY 29944</t>
+          <t>TítuloLEY QUE DECLARA EL DÍA DE LA EDUCACIÓN FINANCIERA EL PRIMER MIÉRCOLES DE OCTUBRE DE CADA AÑO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1805,29 +1805,29 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AutoresGutiérrez Ticona, Paul Silvio Tacuri Valdivia, Germán Adolfo Quiroz Barboza, Segundo Teodomiro ver más...</t>
+          <t>AutoresParedes Piqué, Susel Ana María Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06449/2023-CR</t>
+          <t>Proyecto de Ley 06465/2023-CR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fecha de Presentación16/11/2023</t>
+          <t>Fecha de Presentación20/11/2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PRECISA LA NATURALEZA JURÍDICA DE LA DIETA MENSUAL DEL ALCALDE DEL CENTRO POBLADO REGULADO EN EL ARTÍCULO 131 DE LA LEY 27972, LEY ORGÁNICA DE MUNICIPALIDADES</t>
+          <t>TítuloLEY QUE FACULTA A LOS AFILIADOS AL SISTEMA PRIVADO DE FONDOS DE PENSIONES EL RETIRO DE HASTA 2 UNIDADES IMPOSITIVAS TRIBUTARIAS (UIT) DE LOS FONDOS ACUMULADOS EN SU CUENTA INDIVIDUAL DE CAPITALIZACIÓN (CIC)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Estado ProcesalAutógrafa</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1837,24 +1837,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AutoresGutiérrez Ticona, Paul Silvio Dávila Atanacio, Pasión Neomías Tacuri Valdivia, Germán Adolfo ver más...</t>
+          <t>AutoresRevilla Villanueva, César Manuel Olivos Martínez, Vivian Lizarzaburu Lizarzaburu, Juan Carlos Martin ver más...</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06448/2023-CR</t>
+          <t>Proyecto de Ley 06464/2023-CR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fecha de Presentación16/11/2023</t>
+          <t>Fecha de Presentación20/11/2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE LOS DERECHOS DEL CONSUMIDOR EN EL ETIQUETADO DE HUEVOS</t>
+          <t>TítuloLEY DE NOMBRAMIENTO EXCEPCIONAL DE DOCENTES QUE HAN APROBADO EL INGRESO A LA CARRERA PÚBLICA MAGISTERIAL 2022, SIN REQUISITO DE ESTAR INSCRITO EN EL REGISTRO NACIONAL DE DOCENTES BILINGÜES EN LENGUA ORIGINARIA (RNDBLO), EN LAS PLAZAS VACANTES ORGÁNICAS DE LAS I.E. DE EDUCACIÓN INTERCULTURAL BILINGÜE (EIB)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1869,24 +1869,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AutoresBazán Narro, Sigrid Tesoro Reymundo Mercado, Edgard Cornelio Limachi Quispe, Nieves Esmeralda ver más...</t>
+          <t>AutoresQuispe Mamani, Wilson Rusbel Palacios Huamán, Margot Portalatino Ávalos, Kelly Roxana ver más...</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06447/2023-CR</t>
+          <t>Proyecto de Ley 06463/2023-CR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fecha de Presentación16/11/2023</t>
+          <t>Fecha de Presentación20/11/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N°27181, LEY GENERAL DE TRANSPORTE Y TRÁNSITO TERRESTRE, A FIN DE PRECISAR LA RESPONSABILIDAD CIVIL EN LOS CASOS DE ACCIDENTES DE TRÁNSITO</t>
+          <t>TítuloLEY DE GARANTÍA DEL DERECHO A LA PARTICIPACIÓN EN LAS UTILIDADES</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1901,29 +1901,29 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AutoresBazán Calderón, Diego Alonso Fernando Chirinos Venegas, Patricia Rosa Cavero Alva, Alejandro Enrique ver más...</t>
+          <t>AutoresCortez Aguirre, Isabel Bazán Narro, Sigrid Tesoro Martínez Talavera, Pedro Edwin ver más...</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06446/2023-CR</t>
+          <t>Proyecto de Ley 06462/2023-CR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fecha de Presentación16/11/2023</t>
+          <t>Fecha de Presentación20/11/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE COMPLEMENTA LA LEY N° 31873, LEY QUE REGULA LOS PROCESOS DE ASCENSOS DEL PERSONAL DE LA POLICÍA NACIONAL DEL PERÚ, RECONOCIENDO EL DERECHO DE OFICIALES DE SERVICIO CON SEGUNDA ESPECIALIDAD MÉDICA</t>
+          <t>TítuloLEY QUE MODIFICA EL LITERAL F DEL NUMERAL 24 DEL ARTICULO 2 DE LA CONSTITUCION POLITICA DEL PERU Y EL NUMERAL 4 DEL ARTICULO 264 DEL CODIGO PROCESAL PENAL PARA AMPLIAR EL PLAZO DE LA DETENCION POLICIAL Y DETENCION PRELIMINAR EN LOS DELITOS DE TRATA DE PERSONAS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalDictamen</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1933,24 +1933,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AutoresAcuña Peralta, María Grimaneza Salhuana Cavides, Eduardo Camones Soriano, Lady Mercedes ver más...</t>
+          <t>AutoresJáuregui Martínez de Aguayo, María de los Milagros Jackeline Montoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel ver más...</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06445/2023-CR</t>
+          <t>Proyecto de Ley 06461/2023-CR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/11/2023</t>
+          <t>Fecha de Presentación17/11/2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE AUTORIZA EL NOMBRAMIENTO PROGRESIVO Y EXCEPCIONAL DE DOCENTES EN INSTITUCIONES EDUCATIVAS PÚBLICAS DE EDUCACIÓN BÁSICA QUE APROBARON LA EVALUACIÓN PARA EL INGRESO A LA CARRERA PÚBLICA MAGISTERIAL Y NO ALCANZARON PLAZA VACANTE DOCENTE</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 30021, LEY DE PROMOCIÓN DE LA ALIMENTACIÓN SALUDABLE PARA NIÑOS, NIÑAS Y ADOLESCENTES</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1965,29 +1965,29 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AutoresParedes Gonzales, Alex Antonio Tacuri Valdivia, Germán Adolfo Tello Montes, Nivardo Edgar ver más...</t>
+          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06444/2023-CR</t>
+          <t>Proyecto de Ley 06460/2023-CR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/11/2023</t>
+          <t>Fecha de Presentación17/11/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE EXONERA A LOS GOBIERNOS LOCALES DEL PAGO DE CANON ANUAL POR EL USO DEL ESPECTRO RADIOELÉCTRICO, UNICAMENTE PARA PRESTAR SERVICIOS DE SEGURIDAD CIUDADANA</t>
+          <t>TítuloLEY QUE OPTIMIZA EL AMBITO Y CRITERIOS DE APLICACIÓN DE LA LEY N° 31495, LEY QUE RECONOCE EL DERECHO Y DISPONE EL PAGO DE LA BONIFICACIÓN ESPECIAL POR PREPARACIÓN DE CLASES Y EVALUACIÓN, BONIFICACIÓN ADICIONAL POR DESEMPEÑO DEL CARGO Y POR PREPARACIÓN DE DOCUMENTOS DE GESTIÓN, SIN LA EXIGENCIA DE SENTENCIA JUDICIAL Y MENOS EN CALIDAD DE COSA JUZGADA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalDictamen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1997,24 +1997,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AutoresParedes Gonzales, Alex Antonio Tacuri Valdivia, Germán Adolfo Gutiérrez Ticona, Paul Silvio ver más...</t>
+          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06443/2023-GL</t>
+          <t>Proyecto de Ley 06459/2023-CR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/11/2023</t>
+          <t>Fecha de Presentación17/11/2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE AGRAVA LAS PENAS RESPECTO A LOS DELITOS CONTRA LA ADMINISTRACIÓN PÚBLICA COMETIDOS POR FUNCIONARIOS DE ELECCIÓN POPULAR INCORPORANDO LOS ARTÍCULOS 401-D Y 401-E AL CÓDIGO PENAL, APROBADO POR EL DECRETO LEGISLATIVO N° 635 Y MODIFICATORIAS, A FIN DE LUCHAR CONTRA LA CORRUPCIÓN</t>
+          <t>TítuloLEY QUE RECONOCE, EN EL MARCO DEL BICENTENARIO DE LA INDEPENDENCIA, EL SANTUARIO DE LA BATALLA DE TRIGOPAMPA EN LA PROVINCIA DE FAJARDO, DEPARTAMENTO DE AYACUCHO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2024,29 +2024,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ProponenteGobiernos Locales</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresPalacios Huamán, Margot Quispe Mamani, Wilson Rusbel Cruz Mamani, Flavio ver más...</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06442/2023-CR</t>
+          <t>Proyecto de Ley 06458/2023-PE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fecha de Presentación15/11/2023</t>
+          <t>Fecha de Presentación17/11/2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTÍCULO 9° DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ PARA FORTALECER, EN LA POLÍTICA NACIONAL DE SALUD, LA INTERDEPENDENCIA ENTRE LA SALUD HUMANA, LA DE LOS ANIMALES Y DEL ECOSISTEMA</t>
+          <t>TítuloLEY QUE DECLARA "DÍA DE LA INSTITUCIONALIDAD, DEL ESTADO DE DERECHO Y DE LA DEFENSA DE LA DEMOCRACIA"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponentePoder Ejecutivo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AutoresKamiche Morante, Luis Roberto Paredes Piqué, Susel Ana María Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
